--- a/StructureDefinition-profile-QuestionnaireResponse.xlsx
+++ b/StructureDefinition-profile-QuestionnaireResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="336">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7758971-06:00</t>
+    <t>2026-02-09T22:05:43.2916756-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -792,17 +792,24 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-QuestionnaireResponse.source|0.0.1-snapshot-3}
+    <t>QuestionnaireResponse.source.extension:source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for QuestionnaireResponse.source from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The individual or device that answered the questions about the subject.</t>
-  </si>
-  <si>
-    <t>If not specified, no inference can be made about who provided the data. Device should only be used if it directly determined the answers, not if it was merely used as a capture tool to record answers provided by others. In the latter case, information about the physical device, software, etc. would be captured using Provenance.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `QuestionnaireResponse.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `QuestionnaireResponse.source` is mapped to FHIR R4 element `QuestionnaireResponse.source`.</t>
   </si>
   <si>
     <t>QuestionnaireResponse.source.reference</t>
@@ -3779,7 +3786,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -3877,12 +3884,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
@@ -3903,16 +3912,16 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3988,10 +3997,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4017,13 +4026,13 @@
         <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4073,7 +4082,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4082,7 +4091,7 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>100</v>
@@ -4099,10 +4108,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4128,13 +4137,13 @@
         <v>102</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4160,13 +4169,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4184,7 +4193,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4210,10 +4219,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4239,13 +4248,13 @@
         <v>146</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4295,7 +4304,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4313,7 +4322,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4321,10 +4330,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4350,13 +4359,13 @@
         <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4406,7 +4415,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4432,10 +4441,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4458,16 +4467,16 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4517,7 +4526,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4529,13 +4538,13 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4543,10 +4552,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4652,10 +4661,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4684,7 +4693,7 @@
         <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>137</v>
@@ -4763,14 +4772,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4792,10 +4801,10 @@
         <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>137</v>
@@ -4850,7 +4859,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4876,10 +4885,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4905,14 +4914,14 @@
         <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -4961,7 +4970,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>88</v>
@@ -4979,7 +4988,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -4987,10 +4996,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5016,16 +5025,16 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5074,7 +5083,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5092,7 +5101,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5100,10 +5109,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5129,14 +5138,14 @@
         <v>236</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5185,7 +5194,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5203,7 +5212,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5211,10 +5220,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5237,16 +5246,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5296,7 +5305,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5314,7 +5323,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -5322,10 +5331,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5431,10 +5440,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5463,7 +5472,7 @@
         <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>137</v>
@@ -5542,14 +5551,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5571,10 +5580,10 @@
         <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>137</v>
@@ -5629,7 +5638,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5655,10 +5664,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5681,19 +5690,19 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -5718,13 +5727,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -5742,7 +5751,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5760,7 +5769,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -5768,10 +5777,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5797,14 +5806,14 @@
         <v>80</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -5853,7 +5862,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5871,7 +5880,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -5879,10 +5888,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5908,14 +5917,14 @@
         <v>80</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -5964,7 +5973,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5982,7 +5991,7 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-profile-QuestionnaireResponse.xlsx
+++ b/StructureDefinition-profile-QuestionnaireResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="342">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2916756-06:00</t>
+    <t>2026-02-17T14:42:26.8863499-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -809,7 +809,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `QuestionnaireResponse.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `QuestionnaireResponse.source` is mapped to FHIR R4 element `QuestionnaireResponse.source`.</t>
+Element `QuestionnaireResponse.source` has is mapped to FHIR R4 element `QuestionnaireResponse.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>QuestionnaireResponse.source.reference</t>
@@ -921,7 +921,26 @@
     <t>QuestionnaireResponse.item.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>QuestionnaireResponse.item.extension:item</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-QuestionnaireResponse.item|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for QuestionnaireResponse.item from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `QuestionnaireResponse.item` has is mapped to FHIR R4 element `QuestionnaireResponse.item`, but has no comparisons.
+Note available implied context: `QuestionnaireResponse.item.answer.item` because `QuestionnaireResponse.item.answer.item` is defined as a content reference to `QuestionnaireResponse.item`.
+Note available implied context: `QuestionnaireResponse.item.item` because `QuestionnaireResponse.item.item` is defined as a content reference to `QuestionnaireResponse.item`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.modifierExtension</t>
@@ -1009,6 +1028,9 @@
   </si>
   <si>
     <t>QuestionnaireResponse.item.answer.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.answer.modifierExtension</t>
@@ -1373,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4668,7 +4690,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4690,14 +4712,12 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -4734,16 +4754,14 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>247</v>
@@ -4764,7 +4782,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4772,14 +4790,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4792,26 +4812,24 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -4859,7 +4877,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4868,7 +4886,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>139</v>
@@ -4877,7 +4895,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4892,36 +4910,38 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>297</v>
+        <v>143</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -4970,25 +4990,25 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>131</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5007,7 +5027,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
@@ -5022,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>300</v>
@@ -5030,11 +5050,9 @@
       <c r="M33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5086,7 +5104,7 @@
         <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
@@ -5101,7 +5119,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5109,10 +5127,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5135,15 +5153,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>308</v>
       </c>
@@ -5194,7 +5214,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5234,7 +5254,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5246,7 +5266,7 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>311</v>
@@ -5254,10 +5274,10 @@
       <c r="M35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5311,7 +5331,7 @@
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -5345,7 +5365,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5357,15 +5377,17 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5414,25 +5436,25 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -5440,21 +5462,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5466,17 +5488,15 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -5525,19 +5545,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -5551,14 +5571,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>290</v>
+        <v>133</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5571,26 +5591,24 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O38" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -5638,7 +5656,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5656,7 +5674,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -5664,45 +5682,45 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>323</v>
+        <v>143</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -5727,13 +5745,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -5751,25 +5769,25 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -5777,10 +5795,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5791,7 +5809,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -5803,17 +5821,19 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -5838,13 +5858,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -5862,13 +5882,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -5880,7 +5900,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -5888,10 +5908,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5917,14 +5937,14 @@
         <v>80</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -5973,7 +5993,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5994,6 +6014,117 @@
         <v>285</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-profile-QuestionnaireResponse.xlsx
+++ b/StructureDefinition-profile-QuestionnaireResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8863499-06:00</t>
+    <t>2026-02-20T11:59:20.9278852-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -798,7 +798,7 @@
     <t>source</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -927,7 +927,7 @@
     <t>item</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-QuestionnaireResponse.item|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-QuestionnaireResponse.item}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-QuestionnaireResponse.xlsx
+++ b/StructureDefinition-profile-QuestionnaireResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="298">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9278852-06:00</t>
+    <t>2026-02-21T13:36:54.3328426-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse</t>
+    <t>http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -751,7 +751,30 @@
     <t>FiveWs.source</t>
   </si>
   <si>
-    <t>QuestionnaireResponse.source.id</t>
+    <t>QuestionnaireResponse.item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Groups and questions</t>
+  </si>
+  <si>
+    <t>A group or question item from the original questionnaire for which answers are provided.</t>
+  </si>
+  <si>
+    <t>Groups cannot have answers and therefore must nest directly within item. When dealing with questions, nesting must occur within each answer because some questions may have multiple answers (and the nesting occurs for each answer).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qrs-1:Nested item can't be beneath both item and answer {(answer.exists() and item.exists()).not()}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -770,177 +793,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>QuestionnaireResponse.source.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>QuestionnaireResponse.item.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.source.extension:source</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for QuestionnaireResponse.source from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `QuestionnaireResponse.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `QuestionnaireResponse.source` has is mapped to FHIR R4 element `QuestionnaireResponse.source`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.source.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.source.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.source.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.source.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Groups and questions</t>
-  </si>
-  <si>
-    <t>A group or question item from the original questionnaire for which answers are provided.</t>
-  </si>
-  <si>
-    <t>Groups cannot have answers and therefore must nest directly within item. When dealing with questions, nesting must occur within each answer because some questions may have multiple answers (and the nesting occurs for each answer).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qrs-1:Nested item can't be beneath both item and answer {(answer.exists() and item.exists()).not()}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.id</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.extension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.extension:item</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-QuestionnaireResponse.item}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for QuestionnaireResponse.item from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `QuestionnaireResponse.item` has is mapped to FHIR R4 element `QuestionnaireResponse.item`, but has no comparisons.
-Note available implied context: `QuestionnaireResponse.item.answer.item` because `QuestionnaireResponse.item.answer.item` is defined as a content reference to `QuestionnaireResponse.item`.
-Note available implied context: `QuestionnaireResponse.item.item` because `QuestionnaireResponse.item.item` is defined as a content reference to `QuestionnaireResponse.item`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.modifierExtension</t>
@@ -1028,9 +887,6 @@
   </si>
   <si>
     <t>QuestionnaireResponse.item.answer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.answer.modifierExtension</t>
@@ -1395,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1428,11 +1284,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.94140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="37.40625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3702,7 +3558,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3722,7 +3578,9 @@
       <c r="M21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3771,25 +3629,25 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -3797,10 +3655,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3811,7 +3669,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3823,13 +3681,13 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3868,37 +3726,37 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AF22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3909,20 +3767,18 @@
         <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -3934,16 +3790,16 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3993,7 +3849,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4011,7 +3867,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4019,44 +3875,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4104,19 +3962,19 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -4130,10 +3988,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4141,7 +3999,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4153,21 +4011,21 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4191,13 +4049,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4215,10 +4073,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
@@ -4233,7 +4091,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4241,10 +4099,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4264,21 +4122,23 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4326,7 +4186,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4344,7 +4204,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4352,10 +4212,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4375,21 +4235,21 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4437,7 +4297,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4455,7 +4315,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4463,10 +4323,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4489,16 +4349,16 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4548,7 +4408,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4560,13 +4420,13 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4574,10 +4434,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4600,13 +4460,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4657,7 +4517,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4675,7 +4535,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4683,14 +4543,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4712,12 +4572,14 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -4754,17 +4616,19 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4782,7 +4646,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4790,16 +4654,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4812,24 +4674,26 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -4877,7 +4741,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4886,7 +4750,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>139</v>
@@ -4895,7 +4759,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4903,45 +4767,45 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -4966,13 +4830,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -4990,25 +4854,25 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5016,10 +4880,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5027,10 +4891,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5042,17 +4906,17 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5101,13 +4965,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -5119,7 +4983,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5127,10 +4991,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5141,7 +5005,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5153,19 +5017,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5214,13 +5076,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -5232,899 +5094,9 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
